--- a/pred_ohlcv/54_21/2020-01-15 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 IPX ohlcv.xlsx
@@ -2186,7 +2186,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>66425.687524145</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>66311.341224145</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>66311.341224145</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>67470.593724145</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>51591.199324145</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>24413.087324145</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3038.912675854997</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-27024.717275855</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-538774.452275855</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-538730.452275855</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-517088.1151758551</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-557389.0766758551</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-556732.0766758551</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-556732.0766758551</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-533603.653875855</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-533560.4244758551</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-495142.714675855</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-495796.248075855</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-495796.248075855</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-495880.167175855</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-496740.309675855</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-495843.300875855</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-498156.7229758551</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-609160.282775855</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-620980.2262758551</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-620980.2262758551</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-618759.1083758551</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-622079.1093758552</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-622079.1093758552</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-622079.1093758552</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-621879.1093758552</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-621879.1093758552</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-624464.0959758551</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-622709.6463271441</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-622709.6463271441</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-623008.2024271442</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-623008.2024271442</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-624530.2024271442</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-682861.5685271441</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-682454.7197271441</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-682454.7197271441</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-682454.7197271441</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 IPX ohlcv.xlsx
@@ -1874,7 +1874,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>57472.949824145</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>57494.949824145</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>57462.771824145</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>57462.771824145</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>57506.771824145</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>57484.771824145</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>66425.687524145</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>66311.341224145</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>66311.341224145</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>67575.188424145</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>67470.593724145</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>51591.199324145</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>24413.087324145</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-3038.912675854997</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-27024.717275855</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-538708.452275855</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-538774.452275855</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-538730.452275855</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-540553.683475855</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-517088.1151758551</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-557389.0766758551</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-556732.0766758551</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-556732.0766758551</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-533603.653875855</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-533560.4244758551</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-495142.714675855</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-496692.509375855</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-495796.248075855</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-495796.248075855</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-497098.164075855</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-495880.167175855</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-496740.309675855</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-495843.300875855</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-498482.201975855</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-498156.7229758551</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-609160.282775855</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-620980.2262758551</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-620980.2262758551</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-618759.1083758551</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-622079.1093758552</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-622079.1093758552</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-622079.1093758552</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-621879.1093758552</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-621879.1093758552</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-624464.0959758551</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-622709.6463271441</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-622709.6463271441</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-623030.2024271442</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-623008.2024271442</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-623008.2024271442</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-624530.2024271442</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-682861.5685271441</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-682454.7197271441</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-700208.0899271441</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-676680.4759758551</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-679012.0235245661</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-455337.4707245661</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-411536.0244245661</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
